--- a/public/invoice_template.xlsx
+++ b/public/invoice_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arieschen/Documents/Inventory Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arieschen/Desktop/product-master/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0FFF7D-D563-D645-8612-63C248BA8847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD0B98-D0C5-B246-99EB-0A63609ADF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27620" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">invoice id </t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>vendor</t>
-  </si>
-  <si>
-    <t>date (YYYY/MM/DD)</t>
   </si>
 </sst>
 </file>
@@ -114,14 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,19 +336,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -371,43 +366,38 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="2"/>
